--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_06_end.xlsx
@@ -536,7 +536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I’ve got it!;……;Mhm. I’ve already found the logbooks and bonds.",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="I've got it!;......;Mhm. I've already found the logbooks and bonds.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -556,7 +556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Let’s take everything with us!",values="1")]
+    <t xml:space="preserve">[Decision(options="Let's take everything with us!",values="1")]
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="In other words, you’re toast.;……;You can’t escape the law. We have all the evidence.",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="In other words, you're toast.;......;You can't escape the law. We have all the evidence.",values="1;2;3")]
 </t>
   </si>
   <si>
